--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/10bet2winDataBrokenIMGListForMobile.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/10bet2winDataBrokenIMGListForMobile.xlsx
@@ -12,9 +12,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>628  Game Provider Name = NucleusGaming   Game Name =  Reels of Treasure NJP  cod = 503   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/373b1b69d127521829d2d7ad117152ca46ee5187/Games%20Catalog%20image/image.jpg</t>
+    <t>160  Game Provider Name = Thunderkick   Game Name =  Cosmic Voyager  cod = 404   src = https://resources.bet2win.vip/products/quickspin/mob/qso_colossus.jpg</t>
+  </si>
+  <si>
+    <t>194  Game Provider Name = Thunderkick   Game Name =  DivineLotus  cod = 404   src = https://resources.bet2win.vip/products/quickspin/mob/DivineDreams.png</t>
+  </si>
+  <si>
+    <t>327  Game Provider Name = PariPlay   Game Name =  Gold's Guardian  cod = 404   src = https://resources.bet2win.vip/products/quickspin/mob/qso_goldilocks2.jpg</t>
+  </si>
+  <si>
+    <t>380  Game Provider Name = PlaysonDirect   Game Name =  ImperialFruits:100Lines  cod = 404   src = https://resources.bet2win.vip/products/quickspin/mob//qso_illuminous.jpg</t>
+  </si>
+  <si>
+    <t>390  Game Provider Name = QuickSpin   Game Name =  Ivan and the Immortal King  cod = 404   src = https://resources.bet2win.vip/products/outcomebet/ironbank_rg.jpg</t>
+  </si>
+  <si>
+    <t>503  Game Provider Name = TomHorn   Game Name =  Monkey 27  cod = 404   src = https://resources.bet2win.vip/products/outcomebet/moneytrain2_rg.jpg</t>
+  </si>
+  <si>
+    <t>514  Game Provider Name = Spadegaming   Game Name =  Mr Chu Tycoon  cod = 404   src = https://resources.bet2win.vip/products/quickspin/mob/MountainKing.png</t>
+  </si>
+  <si>
+    <t>663  Game Provider Name = ZeusPlay   Game Name =  Snake Eyes  cod = 404   src = https://resources.bet2win.vip/products/outcomebet/snakearena_rg.jpg</t>
+  </si>
+  <si>
+    <t>677  Game Provider Name = Spadegaming   Game Name =  Spins Stone  cod = 404   src = https://resources.bet2win.vip/products/quickspin/mob/qso_spinions.jpg</t>
+  </si>
+  <si>
+    <t>711  Game Provider Name = PariPlay   Game Name =  Teddy's Tavern  cod = 404   src = https://resources.bet2win.vip/products/quickspin/mob/TalesofDoctorDolittle.png</t>
+  </si>
+  <si>
+    <t>788  Game Provider Name = WACS   Game Name =  VoxSlot  cod = 404   src = https://resources.bet2win.vip/products/quickspin/mob/VolcanoRiches.png</t>
+  </si>
+  <si>
+    <t>798  Game Provider Name = ZeusPlay   Game Name =  Wild Charger  cod = 404   src = https://resources.bet2win.vip/products/outcomebet/wildchapo_rg.jpg</t>
+  </si>
+  <si>
+    <t>800  Game Provider Name = NucleusGaming   Game Name =  Wild Cherry Blast  cod = 404   src = https://resources.bet2win.vip/products/quickspin/mob/WildChase.png</t>
   </si>
 </sst>
 </file>
@@ -59,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -73,6 +109,66 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
